--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf6b8fcebafb54bcb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R846d1e2c27fe44ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R31bb4a760b354752"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R67999e9f86a44830"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re26690c24f29471f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0719bd210ea549ef"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0a900a4c63cc4da1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R86bf98a66ea449c0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R31bb4a760b354752"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R67999e9f86a44830"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rca96f8ba75f44d1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rbfc0395100604946"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0719bd210ea549ef"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6edb25e232d4ac7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -236,7 +236,7 @@
     </x:sheetView>
   </x:sheetViews>
   <x:cols>
-    <x:col min="1" max="1" width="4" customWidth="1"/>
+    <x:col min="1" max="1" width="8" customWidth="1"/>
     <x:col min="2" max="2" width="25" customWidth="1"/>
     <x:col min="3" max="3" width="19" customWidth="1"/>
     <x:col min="4" max="4" width="8" customWidth="1"/>
@@ -261,13 +261,13 @@
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" s="2" t="str">
+      <x:c r="A2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="str">
+      <x:c r="C2" s="2" t="n">
         <x:v>275.0</x:v>
       </x:c>
       <x:c r="D2" s="2" t="str">
@@ -278,7 +278,7 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A3" s="2" t="str">
+      <x:c r="A3" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="2" t="str">
@@ -295,7 +295,7 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="A4" s="2" t="str">
+      <x:c r="A4" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="str">
@@ -312,13 +312,13 @@
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="A5" s="2" t="str">
+      <x:c r="A5" s="2" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="str">
+      <x:c r="C5" s="2" t="n">
         <x:v>143.71</x:v>
       </x:c>
       <x:c r="D5" s="2" t="str">
@@ -329,13 +329,13 @@
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="A6" s="2" t="str">
+      <x:c r="A6" s="2" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="str">
+      <x:c r="C6" s="2" t="n">
         <x:v>11.65</x:v>
       </x:c>
       <x:c r="D6" s="2" t="str">
@@ -346,13 +346,13 @@
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="A7" s="2" t="str">
+      <x:c r="A7" s="2" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="str">
+      <x:c r="C7" s="2" t="n">
         <x:v>383.82</x:v>
       </x:c>
       <x:c r="D7" s="2" t="str">
@@ -363,7 +363,7 @@
       </x:c>
     </x:row>
     <x:row r="8">
-      <x:c r="A8" s="2" t="str">
+      <x:c r="A8" s="2" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="2" t="str">
@@ -380,13 +380,13 @@
       </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="A9" s="2" t="str">
+      <x:c r="A9" s="2" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="str">
+      <x:c r="C9" s="2" t="n">
         <x:v>134.99</x:v>
       </x:c>
       <x:c r="D9" s="2" t="str">
@@ -397,13 +397,13 @@
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="A10" s="2" t="str">
+      <x:c r="A10" s="2" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="str">
+      <x:c r="C10" s="2" t="n">
         <x:v>577.67</x:v>
       </x:c>
       <x:c r="D10" s="2" t="str">
@@ -414,7 +414,7 @@
       </x:c>
     </x:row>
     <x:row r="11">
-      <x:c r="A11" s="2" t="str">
+      <x:c r="A11" s="2" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="2" t="str">
@@ -431,13 +431,13 @@
       </x:c>
     </x:row>
     <x:row r="12">
-      <x:c r="A12" s="2" t="str">
+      <x:c r="A12" s="2" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="str">
+      <x:c r="C12" s="2" t="n">
         <x:v>214.79</x:v>
       </x:c>
       <x:c r="D12" s="2" t="str">
@@ -448,7 +448,7 @@
       </x:c>
     </x:row>
     <x:row r="13">
-      <x:c r="A13" s="2" t="str">
+      <x:c r="A13" s="2" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="2" t="str">
@@ -465,13 +465,13 @@
       </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="A14" s="2" t="str">
+      <x:c r="A14" s="2" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="str">
+      <x:c r="C14" s="2" t="n">
         <x:v>671.79</x:v>
       </x:c>
       <x:c r="D14" s="2" t="str">
@@ -482,13 +482,13 @@
       </x:c>
     </x:row>
     <x:row r="15">
-      <x:c r="A15" s="2" t="str">
+      <x:c r="A15" s="2" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="str">
+      <x:c r="C15" s="2" t="n">
         <x:v>848.87</x:v>
       </x:c>
       <x:c r="D15" s="2" t="str">
@@ -499,13 +499,13 @@
       </x:c>
     </x:row>
     <x:row r="16">
-      <x:c r="A16" s="2" t="str">
+      <x:c r="A16" s="2" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="str">
+      <x:c r="C16" s="2" t="n">
         <x:v>661.49</x:v>
       </x:c>
       <x:c r="D16" s="2" t="str">
@@ -516,13 +516,13 @@
       </x:c>
     </x:row>
     <x:row r="17">
-      <x:c r="A17" s="2" t="str">
+      <x:c r="A17" s="2" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="str">
+      <x:c r="C17" s="2" t="n">
         <x:v>558.66</x:v>
       </x:c>
       <x:c r="D17" s="2" t="str">
@@ -533,13 +533,13 @@
       </x:c>
     </x:row>
     <x:row r="18">
-      <x:c r="A18" s="2" t="str">
+      <x:c r="A18" s="2" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="str">
+      <x:c r="C18" s="2" t="n">
         <x:v>577.44</x:v>
       </x:c>
       <x:c r="D18" s="2" t="str">
@@ -550,13 +550,13 @@
       </x:c>
     </x:row>
     <x:row r="19">
-      <x:c r="A19" s="2" t="str">
+      <x:c r="A19" s="2" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="str">
+      <x:c r="C19" s="2" t="n">
         <x:v>590.34</x:v>
       </x:c>
       <x:c r="D19" s="2" t="str">
@@ -567,13 +567,13 @@
       </x:c>
     </x:row>
     <x:row r="20">
-      <x:c r="A20" s="2" t="str">
+      <x:c r="A20" s="2" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="str">
+      <x:c r="C20" s="2" t="n">
         <x:v>997.58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="str">
@@ -584,13 +584,13 @@
       </x:c>
     </x:row>
     <x:row r="21">
-      <x:c r="A21" s="2" t="str">
+      <x:c r="A21" s="2" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="str">
+      <x:c r="C21" s="2" t="n">
         <x:v>726.43</x:v>
       </x:c>
       <x:c r="D21" s="2" t="str">
@@ -601,13 +601,13 @@
       </x:c>
     </x:row>
     <x:row r="22">
-      <x:c r="A22" s="2" t="str">
+      <x:c r="A22" s="2" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="str">
+      <x:c r="C22" s="2" t="n">
         <x:v>964.42</x:v>
       </x:c>
       <x:c r="D22" s="2" t="str">
@@ -618,13 +618,13 @@
       </x:c>
     </x:row>
     <x:row r="23">
-      <x:c r="A23" s="2" t="str">
+      <x:c r="A23" s="2" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="str">
+      <x:c r="C23" s="2" t="n">
         <x:v>162.22</x:v>
       </x:c>
       <x:c r="D23" s="2" t="str">
@@ -635,13 +635,13 @@
       </x:c>
     </x:row>
     <x:row r="24">
-      <x:c r="A24" s="2" t="str">
+      <x:c r="A24" s="2" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="str">
+      <x:c r="C24" s="2" t="n">
         <x:v>53.69</x:v>
       </x:c>
       <x:c r="D24" s="2" t="str">
@@ -652,13 +652,13 @@
       </x:c>
     </x:row>
     <x:row r="25">
-      <x:c r="A25" s="2" t="str">
+      <x:c r="A25" s="2" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="str">
+      <x:c r="C25" s="2" t="n">
         <x:v>30.8</x:v>
       </x:c>
       <x:c r="D25" s="2" t="str">
@@ -669,13 +669,13 @@
       </x:c>
     </x:row>
     <x:row r="26">
-      <x:c r="A26" s="2" t="str">
+      <x:c r="A26" s="2" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="str">
+      <x:c r="C26" s="2" t="n">
         <x:v>637.93</x:v>
       </x:c>
       <x:c r="D26" s="2" t="str">
@@ -686,13 +686,13 @@
       </x:c>
     </x:row>
     <x:row r="27">
-      <x:c r="A27" s="2" t="str">
+      <x:c r="A27" s="2" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="str">
+      <x:c r="C27" s="2" t="n">
         <x:v>71.98</x:v>
       </x:c>
       <x:c r="D27" s="2" t="str">
@@ -703,13 +703,13 @@
       </x:c>
     </x:row>
     <x:row r="28">
-      <x:c r="A28" s="2" t="str">
+      <x:c r="A28" s="2" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="str">
+      <x:c r="C28" s="2" t="n">
         <x:v>438.87</x:v>
       </x:c>
       <x:c r="D28" s="2" t="str">
@@ -720,7 +720,7 @@
       </x:c>
     </x:row>
     <x:row r="29">
-      <x:c r="A29" s="2" t="str">
+      <x:c r="A29" s="2" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="2" t="str">
@@ -737,13 +737,13 @@
       </x:c>
     </x:row>
     <x:row r="30">
-      <x:c r="A30" s="2" t="str">
+      <x:c r="A30" s="2" t="n">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="str">
+      <x:c r="C30" s="2" t="n">
         <x:v>269.91</x:v>
       </x:c>
       <x:c r="D30" s="2" t="str">
@@ -754,13 +754,13 @@
       </x:c>
     </x:row>
     <x:row r="31">
-      <x:c r="A31" s="2" t="str">
+      <x:c r="A31" s="2" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="str">
+      <x:c r="C31" s="2" t="n">
         <x:v>341.48</x:v>
       </x:c>
       <x:c r="D31" s="2" t="str">
@@ -771,7 +771,7 @@
       </x:c>
     </x:row>
     <x:row r="32">
-      <x:c r="A32" s="2" t="str">
+      <x:c r="A32" s="2" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="2" t="str">
@@ -788,13 +788,13 @@
       </x:c>
     </x:row>
     <x:row r="33">
-      <x:c r="A33" s="2" t="str">
+      <x:c r="A33" s="2" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="str">
+      <x:c r="C33" s="2" t="n">
         <x:v>378.39</x:v>
       </x:c>
       <x:c r="D33" s="2" t="str">
@@ -805,13 +805,13 @@
       </x:c>
     </x:row>
     <x:row r="34">
-      <x:c r="A34" s="2" t="str">
+      <x:c r="A34" s="2" t="n">
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="str">
+      <x:c r="C34" s="2" t="n">
         <x:v>760.48</x:v>
       </x:c>
       <x:c r="D34" s="2" t="str">
@@ -822,13 +822,13 @@
       </x:c>
     </x:row>
     <x:row r="35">
-      <x:c r="A35" s="2" t="str">
+      <x:c r="A35" s="2" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="str">
+      <x:c r="C35" s="2" t="n">
         <x:v>914.58</x:v>
       </x:c>
       <x:c r="D35" s="2" t="str">
@@ -839,13 +839,13 @@
       </x:c>
     </x:row>
     <x:row r="36">
-      <x:c r="A36" s="2" t="str">
+      <x:c r="A36" s="2" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="str">
+      <x:c r="C36" s="2" t="n">
         <x:v>135.21</x:v>
       </x:c>
       <x:c r="D36" s="2" t="str">
@@ -856,13 +856,13 @@
       </x:c>
     </x:row>
     <x:row r="37">
-      <x:c r="A37" s="2" t="str">
+      <x:c r="A37" s="2" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="str">
+      <x:c r="C37" s="2" t="n">
         <x:v>633.32</x:v>
       </x:c>
       <x:c r="D37" s="2" t="str">
@@ -873,13 +873,13 @@
       </x:c>
     </x:row>
     <x:row r="38">
-      <x:c r="A38" s="2" t="str">
+      <x:c r="A38" s="2" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="str">
+      <x:c r="C38" s="2" t="n">
         <x:v>743.95</x:v>
       </x:c>
       <x:c r="D38" s="2" t="str">
@@ -890,13 +890,13 @@
       </x:c>
     </x:row>
     <x:row r="39">
-      <x:c r="A39" s="2" t="str">
+      <x:c r="A39" s="2" t="n">
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="str">
+      <x:c r="C39" s="2" t="n">
         <x:v>455.23</x:v>
       </x:c>
       <x:c r="D39" s="2" t="str">
@@ -907,7 +907,7 @@
       </x:c>
     </x:row>
     <x:row r="40">
-      <x:c r="A40" s="2" t="str">
+      <x:c r="A40" s="2" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="2" t="str">
@@ -924,13 +924,13 @@
       </x:c>
     </x:row>
     <x:row r="41">
-      <x:c r="A41" s="2" t="str">
+      <x:c r="A41" s="2" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="str">
+      <x:c r="C41" s="2" t="n">
         <x:v>331.61</x:v>
       </x:c>
       <x:c r="D41" s="2" t="str">
@@ -941,13 +941,13 @@
       </x:c>
     </x:row>
     <x:row r="42">
-      <x:c r="A42" s="2" t="str">
+      <x:c r="A42" s="2" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="str">
+      <x:c r="C42" s="2" t="n">
         <x:v>113.73</x:v>
       </x:c>
       <x:c r="D42" s="2" t="str">
@@ -958,13 +958,13 @@
       </x:c>
     </x:row>
     <x:row r="43">
-      <x:c r="A43" s="2" t="str">
+      <x:c r="A43" s="2" t="n">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="str">
+      <x:c r="C43" s="2" t="n">
         <x:v>346.68</x:v>
       </x:c>
       <x:c r="D43" s="2" t="str">
@@ -975,13 +975,13 @@
       </x:c>
     </x:row>
     <x:row r="44">
-      <x:c r="A44" s="2" t="str">
+      <x:c r="A44" s="2" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="str">
+      <x:c r="C44" s="2" t="n">
         <x:v>211.24</x:v>
       </x:c>
       <x:c r="D44" s="2" t="str">
@@ -992,13 +992,13 @@
       </x:c>
     </x:row>
     <x:row r="45">
-      <x:c r="A45" s="2" t="str">
+      <x:c r="A45" s="2" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="str">
+      <x:c r="C45" s="2" t="n">
         <x:v>52.59</x:v>
       </x:c>
       <x:c r="D45" s="2" t="str">
@@ -1009,7 +1009,7 @@
       </x:c>
     </x:row>
     <x:row r="46">
-      <x:c r="A46" s="2" t="str">
+      <x:c r="A46" s="2" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="2" t="str">
@@ -1026,13 +1026,13 @@
       </x:c>
     </x:row>
     <x:row r="47">
-      <x:c r="A47" s="2" t="str">
+      <x:c r="A47" s="2" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="str">
+      <x:c r="C47" s="2" t="n">
         <x:v>568.98</x:v>
       </x:c>
       <x:c r="D47" s="2" t="str">
@@ -1043,13 +1043,13 @@
       </x:c>
     </x:row>
     <x:row r="48">
-      <x:c r="A48" s="2" t="str">
+      <x:c r="A48" s="2" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="str">
+      <x:c r="C48" s="2" t="n">
         <x:v>347.73</x:v>
       </x:c>
       <x:c r="D48" s="2" t="str">
@@ -1060,13 +1060,13 @@
       </x:c>
     </x:row>
     <x:row r="49">
-      <x:c r="A49" s="2" t="str">
+      <x:c r="A49" s="2" t="n">
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="str">
+      <x:c r="C49" s="2" t="n">
         <x:v>788.22</x:v>
       </x:c>
       <x:c r="D49" s="2" t="str">
@@ -1077,13 +1077,13 @@
       </x:c>
     </x:row>
     <x:row r="50">
-      <x:c r="A50" s="2" t="str">
+      <x:c r="A50" s="2" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="str">
+      <x:c r="C50" s="2" t="n">
         <x:v>779.18</x:v>
       </x:c>
       <x:c r="D50" s="2" t="str">
@@ -1094,13 +1094,13 @@
       </x:c>
     </x:row>
     <x:row r="51">
-      <x:c r="A51" s="2" t="str">
+      <x:c r="A51" s="2" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C51" s="2" t="str">
+      <x:c r="C51" s="2" t="n">
         <x:v>401.86</x:v>
       </x:c>
       <x:c r="D51" s="2" t="str">
@@ -1111,13 +1111,13 @@
       </x:c>
     </x:row>
     <x:row r="52">
-      <x:c r="A52" s="2" t="str">
+      <x:c r="A52" s="2" t="n">
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C52" s="2" t="str">
+      <x:c r="C52" s="2" t="n">
         <x:v>613.65</x:v>
       </x:c>
       <x:c r="D52" s="2" t="str">
@@ -1128,13 +1128,13 @@
       </x:c>
     </x:row>
     <x:row r="53">
-      <x:c r="A53" s="2" t="str">
+      <x:c r="A53" s="2" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C53" s="2" t="str">
+      <x:c r="C53" s="2" t="n">
         <x:v>698.82</x:v>
       </x:c>
       <x:c r="D53" s="2" t="str">
@@ -1145,7 +1145,7 @@
       </x:c>
     </x:row>
     <x:row r="54">
-      <x:c r="A54" s="2" t="str">
+      <x:c r="A54" s="2" t="n">
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="2" t="str">
@@ -1162,7 +1162,7 @@
       </x:c>
     </x:row>
     <x:row r="55">
-      <x:c r="A55" s="2" t="str">
+      <x:c r="A55" s="2" t="n">
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="2" t="str">
@@ -1179,13 +1179,13 @@
       </x:c>
     </x:row>
     <x:row r="56">
-      <x:c r="A56" s="2" t="str">
+      <x:c r="A56" s="2" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C56" s="2" t="str">
+      <x:c r="C56" s="2" t="n">
         <x:v>822.27</x:v>
       </x:c>
       <x:c r="D56" s="2" t="str">
@@ -1196,13 +1196,13 @@
       </x:c>
     </x:row>
     <x:row r="57">
-      <x:c r="A57" s="2" t="str">
+      <x:c r="A57" s="2" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C57" s="2" t="str">
+      <x:c r="C57" s="2" t="n">
         <x:v>843.21</x:v>
       </x:c>
       <x:c r="D57" s="2" t="str">
@@ -1213,7 +1213,7 @@
       </x:c>
     </x:row>
     <x:row r="58">
-      <x:c r="A58" s="2" t="str">
+      <x:c r="A58" s="2" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="2" t="str">
@@ -1230,13 +1230,13 @@
       </x:c>
     </x:row>
     <x:row r="59">
-      <x:c r="A59" s="2" t="str">
+      <x:c r="A59" s="2" t="n">
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C59" s="2" t="str">
+      <x:c r="C59" s="2" t="n">
         <x:v>78.47</x:v>
       </x:c>
       <x:c r="D59" s="2" t="str">
@@ -1247,7 +1247,7 @@
       </x:c>
     </x:row>
     <x:row r="60">
-      <x:c r="A60" s="2" t="str">
+      <x:c r="A60" s="2" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="2" t="str">
@@ -1264,13 +1264,13 @@
       </x:c>
     </x:row>
     <x:row r="61">
-      <x:c r="A61" s="2" t="str">
+      <x:c r="A61" s="2" t="n">
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C61" s="2" t="str">
+      <x:c r="C61" s="2" t="n">
         <x:v>61.09</x:v>
       </x:c>
       <x:c r="D61" s="2" t="str">
@@ -1281,13 +1281,13 @@
       </x:c>
     </x:row>
     <x:row r="62">
-      <x:c r="A62" s="2" t="str">
+      <x:c r="A62" s="2" t="n">
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C62" s="2" t="str">
+      <x:c r="C62" s="2" t="n">
         <x:v>470.89</x:v>
       </x:c>
       <x:c r="D62" s="2" t="str">
@@ -1298,13 +1298,13 @@
       </x:c>
     </x:row>
     <x:row r="63">
-      <x:c r="A63" s="2" t="str">
+      <x:c r="A63" s="2" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C63" s="2" t="str">
+      <x:c r="C63" s="2" t="n">
         <x:v>273.26</x:v>
       </x:c>
       <x:c r="D63" s="2" t="str">
@@ -1315,7 +1315,7 @@
       </x:c>
     </x:row>
     <x:row r="64">
-      <x:c r="A64" s="2" t="str">
+      <x:c r="A64" s="2" t="n">
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="2" t="str">
@@ -1332,13 +1332,13 @@
       </x:c>
     </x:row>
     <x:row r="65">
-      <x:c r="A65" s="2" t="str">
+      <x:c r="A65" s="2" t="n">
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C65" s="2" t="str">
+      <x:c r="C65" s="2" t="n">
         <x:v>906.41</x:v>
       </x:c>
       <x:c r="D65" s="2" t="str">
@@ -1349,13 +1349,13 @@
       </x:c>
     </x:row>
     <x:row r="66">
-      <x:c r="A66" s="2" t="str">
+      <x:c r="A66" s="2" t="n">
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C66" s="2" t="str">
+      <x:c r="C66" s="2" t="n">
         <x:v>190.38</x:v>
       </x:c>
       <x:c r="D66" s="2" t="str">
@@ -1366,13 +1366,13 @@
       </x:c>
     </x:row>
     <x:row r="67">
-      <x:c r="A67" s="2" t="str">
+      <x:c r="A67" s="2" t="n">
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C67" s="2" t="str">
+      <x:c r="C67" s="2" t="n">
         <x:v>736.42</x:v>
       </x:c>
       <x:c r="D67" s="2" t="str">
@@ -1383,7 +1383,7 @@
       </x:c>
     </x:row>
     <x:row r="68">
-      <x:c r="A68" s="2" t="str">
+      <x:c r="A68" s="2" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" s="2" t="str">
@@ -1400,13 +1400,13 @@
       </x:c>
     </x:row>
     <x:row r="69">
-      <x:c r="A69" s="2" t="str">
+      <x:c r="A69" s="2" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C69" s="2" t="str">
+      <x:c r="C69" s="2" t="n">
         <x:v>892.62</x:v>
       </x:c>
       <x:c r="D69" s="2" t="str">
@@ -1417,7 +1417,7 @@
       </x:c>
     </x:row>
     <x:row r="70">
-      <x:c r="A70" s="2" t="str">
+      <x:c r="A70" s="2" t="n">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="2" t="str">
@@ -1434,13 +1434,13 @@
       </x:c>
     </x:row>
     <x:row r="71">
-      <x:c r="A71" s="2" t="str">
+      <x:c r="A71" s="2" t="n">
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C71" s="2" t="str">
+      <x:c r="C71" s="2" t="n">
         <x:v>732.55</x:v>
       </x:c>
       <x:c r="D71" s="2" t="str">
@@ -1451,13 +1451,13 @@
       </x:c>
     </x:row>
     <x:row r="72">
-      <x:c r="A72" s="2" t="str">
+      <x:c r="A72" s="2" t="n">
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C72" s="2" t="str">
+      <x:c r="C72" s="2" t="n">
         <x:v>292.24</x:v>
       </x:c>
       <x:c r="D72" s="2" t="str">
@@ -1468,13 +1468,13 @@
       </x:c>
     </x:row>
     <x:row r="73">
-      <x:c r="A73" s="2" t="str">
+      <x:c r="A73" s="2" t="n">
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C73" s="2" t="str">
+      <x:c r="C73" s="2" t="n">
         <x:v>52.97</x:v>
       </x:c>
       <x:c r="D73" s="2" t="str">
@@ -1485,13 +1485,13 @@
       </x:c>
     </x:row>
     <x:row r="74">
-      <x:c r="A74" s="2" t="str">
+      <x:c r="A74" s="2" t="n">
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C74" s="2" t="str">
+      <x:c r="C74" s="2" t="n">
         <x:v>206.26</x:v>
       </x:c>
       <x:c r="D74" s="2" t="str">
@@ -1502,13 +1502,13 @@
       </x:c>
     </x:row>
     <x:row r="75">
-      <x:c r="A75" s="2" t="str">
+      <x:c r="A75" s="2" t="n">
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C75" s="2" t="str">
+      <x:c r="C75" s="2" t="n">
         <x:v>766.22</x:v>
       </x:c>
       <x:c r="D75" s="2" t="str">
@@ -1519,7 +1519,7 @@
       </x:c>
     </x:row>
     <x:row r="76">
-      <x:c r="A76" s="2" t="str">
+      <x:c r="A76" s="2" t="n">
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="2" t="str">
@@ -1536,13 +1536,13 @@
       </x:c>
     </x:row>
     <x:row r="77">
-      <x:c r="A77" s="2" t="str">
+      <x:c r="A77" s="2" t="n">
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C77" s="2" t="str">
+      <x:c r="C77" s="2" t="n">
         <x:v>532.53</x:v>
       </x:c>
       <x:c r="D77" s="2" t="str">
@@ -1553,13 +1553,13 @@
       </x:c>
     </x:row>
     <x:row r="78">
-      <x:c r="A78" s="2" t="str">
+      <x:c r="A78" s="2" t="n">
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="C78" s="2" t="str">
+      <x:c r="C78" s="2" t="n">
         <x:v>549.51</x:v>
       </x:c>
       <x:c r="D78" s="2" t="str">
@@ -1570,13 +1570,13 @@
       </x:c>
     </x:row>
     <x:row r="79">
-      <x:c r="A79" s="2" t="str">
+      <x:c r="A79" s="2" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="C79" s="2" t="str">
+      <x:c r="C79" s="2" t="n">
         <x:v>941.48</x:v>
       </x:c>
       <x:c r="D79" s="2" t="str">
@@ -1587,13 +1587,13 @@
       </x:c>
     </x:row>
     <x:row r="80">
-      <x:c r="A80" s="2" t="str">
+      <x:c r="A80" s="2" t="n">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C80" s="2" t="str">
+      <x:c r="C80" s="2" t="n">
         <x:v>799.79</x:v>
       </x:c>
       <x:c r="D80" s="2" t="str">
@@ -1604,13 +1604,13 @@
       </x:c>
     </x:row>
     <x:row r="81">
-      <x:c r="A81" s="2" t="str">
+      <x:c r="A81" s="2" t="n">
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C81" s="2" t="str">
+      <x:c r="C81" s="2" t="n">
         <x:v>574.31</x:v>
       </x:c>
       <x:c r="D81" s="2" t="str">
@@ -1621,13 +1621,13 @@
       </x:c>
     </x:row>
     <x:row r="82">
-      <x:c r="A82" s="2" t="str">
+      <x:c r="A82" s="2" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="C82" s="2" t="str">
+      <x:c r="C82" s="2" t="n">
         <x:v>162.31</x:v>
       </x:c>
       <x:c r="D82" s="2" t="str">
@@ -1638,13 +1638,13 @@
       </x:c>
     </x:row>
     <x:row r="83">
-      <x:c r="A83" s="2" t="str">
+      <x:c r="A83" s="2" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C83" s="2" t="str">
+      <x:c r="C83" s="2" t="n">
         <x:v>977.17</x:v>
       </x:c>
       <x:c r="D83" s="2" t="str">
@@ -1655,13 +1655,13 @@
       </x:c>
     </x:row>
     <x:row r="84">
-      <x:c r="A84" s="2" t="str">
+      <x:c r="A84" s="2" t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C84" s="2" t="str">
+      <x:c r="C84" s="2" t="n">
         <x:v>82.71</x:v>
       </x:c>
       <x:c r="D84" s="2" t="str">
@@ -1672,13 +1672,13 @@
       </x:c>
     </x:row>
     <x:row r="85">
-      <x:c r="A85" s="2" t="str">
+      <x:c r="A85" s="2" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C85" s="2" t="str">
+      <x:c r="C85" s="2" t="n">
         <x:v>659.65</x:v>
       </x:c>
       <x:c r="D85" s="2" t="str">
@@ -1689,13 +1689,13 @@
       </x:c>
     </x:row>
     <x:row r="86">
-      <x:c r="A86" s="2" t="str">
+      <x:c r="A86" s="2" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C86" s="2" t="str">
+      <x:c r="C86" s="2" t="n">
         <x:v>733.46</x:v>
       </x:c>
       <x:c r="D86" s="2" t="str">
@@ -1706,13 +1706,13 @@
       </x:c>
     </x:row>
     <x:row r="87">
-      <x:c r="A87" s="2" t="str">
+      <x:c r="A87" s="2" t="n">
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="C87" s="2" t="str">
+      <x:c r="C87" s="2" t="n">
         <x:v>311.14</x:v>
       </x:c>
       <x:c r="D87" s="2" t="str">
@@ -1723,13 +1723,13 @@
       </x:c>
     </x:row>
     <x:row r="88">
-      <x:c r="A88" s="2" t="str">
+      <x:c r="A88" s="2" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C88" s="2" t="str">
+      <x:c r="C88" s="2" t="n">
         <x:v>520.34</x:v>
       </x:c>
       <x:c r="D88" s="2" t="str">
@@ -1740,13 +1740,13 @@
       </x:c>
     </x:row>
     <x:row r="89">
-      <x:c r="A89" s="2" t="str">
+      <x:c r="A89" s="2" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C89" s="2" t="str">
+      <x:c r="C89" s="2" t="n">
         <x:v>232.68</x:v>
       </x:c>
       <x:c r="D89" s="2" t="str">
@@ -1757,13 +1757,13 @@
       </x:c>
     </x:row>
     <x:row r="90">
-      <x:c r="A90" s="2" t="str">
+      <x:c r="A90" s="2" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C90" s="2" t="str">
+      <x:c r="C90" s="2" t="n">
         <x:v>396.77</x:v>
       </x:c>
       <x:c r="D90" s="2" t="str">
@@ -1774,13 +1774,13 @@
       </x:c>
     </x:row>
     <x:row r="91">
-      <x:c r="A91" s="2" t="str">
+      <x:c r="A91" s="2" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C91" s="2" t="str">
+      <x:c r="C91" s="2" t="n">
         <x:v>983.83</x:v>
       </x:c>
       <x:c r="D91" s="2" t="str">
@@ -1791,13 +1791,13 @@
       </x:c>
     </x:row>
     <x:row r="92">
-      <x:c r="A92" s="2" t="str">
+      <x:c r="A92" s="2" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="C92" s="2" t="str">
+      <x:c r="C92" s="2" t="n">
         <x:v>147.83</x:v>
       </x:c>
       <x:c r="D92" s="2" t="str">
@@ -1808,7 +1808,7 @@
       </x:c>
     </x:row>
     <x:row r="93">
-      <x:c r="A93" s="2" t="str">
+      <x:c r="A93" s="2" t="n">
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" s="2" t="str">
@@ -1825,13 +1825,13 @@
       </x:c>
     </x:row>
     <x:row r="94">
-      <x:c r="A94" s="2" t="str">
+      <x:c r="A94" s="2" t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="C94" s="2" t="str">
+      <x:c r="C94" s="2" t="n">
         <x:v>525.66</x:v>
       </x:c>
       <x:c r="D94" s="2" t="str">
@@ -1842,13 +1842,13 @@
       </x:c>
     </x:row>
     <x:row r="95">
-      <x:c r="A95" s="2" t="str">
+      <x:c r="A95" s="2" t="n">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="C95" s="2" t="str">
+      <x:c r="C95" s="2" t="n">
         <x:v>396.68</x:v>
       </x:c>
       <x:c r="D95" s="2" t="str">
@@ -1859,7 +1859,7 @@
       </x:c>
     </x:row>
     <x:row r="96">
-      <x:c r="A96" s="2" t="str">
+      <x:c r="A96" s="2" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" s="2" t="str">
@@ -1876,13 +1876,13 @@
       </x:c>
     </x:row>
     <x:row r="97">
-      <x:c r="A97" s="2" t="str">
+      <x:c r="A97" s="2" t="n">
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="C97" s="2" t="str">
+      <x:c r="C97" s="2" t="n">
         <x:v>782.71</x:v>
       </x:c>
       <x:c r="D97" s="2" t="str">
@@ -1893,7 +1893,7 @@
       </x:c>
     </x:row>
     <x:row r="98">
-      <x:c r="A98" s="2" t="str">
+      <x:c r="A98" s="2" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" s="2" t="str">
@@ -1910,13 +1910,13 @@
       </x:c>
     </x:row>
     <x:row r="99">
-      <x:c r="A99" s="2" t="str">
+      <x:c r="A99" s="2" t="n">
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C99" s="2" t="str">
+      <x:c r="C99" s="2" t="n">
         <x:v>170.94</x:v>
       </x:c>
       <x:c r="D99" s="2" t="str">
@@ -1927,13 +1927,13 @@
       </x:c>
     </x:row>
     <x:row r="100">
-      <x:c r="A100" s="2" t="str">
+      <x:c r="A100" s="2" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="C100" s="2" t="str">
+      <x:c r="C100" s="2" t="n">
         <x:v>107.23</x:v>
       </x:c>
       <x:c r="D100" s="2" t="str">
@@ -1944,13 +1944,13 @@
       </x:c>
     </x:row>
     <x:row r="101">
-      <x:c r="A101" s="2" t="str">
+      <x:c r="A101" s="2" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="C101" s="2" t="str">
+      <x:c r="C101" s="2" t="n">
         <x:v>937.59</x:v>
       </x:c>
       <x:c r="D101" s="2" t="str">
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R86bf98a66ea449c0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56b9e262f1914f8d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rca96f8ba75f44d1b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rbfc0395100604946"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R85771869c4ef4a9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R57469775c7e54970"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6edb25e232d4ac7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06d875abe4784eae"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56b9e262f1914f8d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3be66a3fd19a432f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R85771869c4ef4a9c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R57469775c7e54970"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rb414d67ffdf741b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R08191fdc0c824625"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06d875abe4784eae"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9531191a0d0d4650"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3be66a3fd19a432f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8dce25242ad14f84"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rb414d67ffdf741b5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R08191fdc0c824625"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf4d5ceb068b04112"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R52e027017e0a4bc9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9531191a0d0d4650"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R096315019778493e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8dce25242ad14f84"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05354bab05c340da"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf4d5ceb068b04112"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R52e027017e0a4bc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Re5b1ac145c5a4bc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf59fa2b685274bb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R096315019778493e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R448179ca1b304277"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05354bab05c340da"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfab5ddae0d494842"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Re5b1ac145c5a4bc1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf59fa2b685274bb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R672b554f54d24280"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rea6c8706c9214672"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R448179ca1b304277"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfa8ba2fac9104760"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfab5ddae0d494842"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra604f9b8474849f6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R672b554f54d24280"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rea6c8706c9214672"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rcdeade1535aa44b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R417796056ac64b6e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfa8ba2fac9104760"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41182d6f386140c1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra604f9b8474849f6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4168261f8b3d44fc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rcdeade1535aa44b7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R417796056ac64b6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R3b1cb601db054a31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf49e21a57a5e4096"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -218,7 +218,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41182d6f386140c1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R370decb8719f402d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1967,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4168261f8b3d44fc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3771bcee3b64814"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R3b1cb601db054a31"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf49e21a57a5e4096"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Re773aac590f644c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rff88dbc91b184916"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -116,6 +116,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>amount</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Raw Data'!$E$2:$E$101</c:f>
@@ -218,7 +221,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R370decb8719f402d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b4ab222cab94525"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1967,6 +1970,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3771bcee3b64814"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1b481808c23d4031"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Re773aac590f644c4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rff88dbc91b184916"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R9ea7713156fd415f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R37ba683d963d4393"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -221,7 +221,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b4ab222cab94525"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R604ea74a5f3547e2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1970,6 +1970,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1b481808c23d4031"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc53bf20ed9b14c58"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R9ea7713156fd415f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R37ba683d963d4393"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R8674bf6d777b4daf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rc4fa4ebda20f41cf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,6 +119,9 @@
           <c:tx>
             <c:v>amount</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Raw Data'!$E$2:$E$101</c:f>
@@ -221,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R604ea74a5f3547e2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd916ece17a364450"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1970,6 +1973,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc53bf20ed9b14c58"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra24f0a33cb4044c2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R8674bf6d777b4daf"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rc4fa4ebda20f41cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf054cc8e954b4ce8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf6352443f65e466a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -224,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd916ece17a364450"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc2b03bb7ddf14e2f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,6 +1973,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra24f0a33cb4044c2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ref12f4eb02dd4530"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf054cc8e954b4ce8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf6352443f65e466a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf9a48694d04d4fbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R131ff90666e8485e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -224,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc2b03bb7ddf14e2f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra73f476f1e0847fa"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,6 +1973,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ref12f4eb02dd4530"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f7238d7954646f4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf9a48694d04d4fbe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R131ff90666e8485e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R2cae1137266c4da6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R23b9f722e45c441a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -224,7 +224,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra73f476f1e0847fa"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49d21ed4f56249d8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,6 +1973,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f7238d7954646f4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b4df7968d45419d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/73_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R2cae1137266c4da6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R23b9f722e45c441a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R62cd4400aa9d4f2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R8349c1256f6f41c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -133,6 +133,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -224,7 +232,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49d21ed4f56249d8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R894c3de1690648f0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,6 +1981,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b4df7968d45419d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R25b4828fa7b74dd5"/>
 </x:worksheet>
 </file>